--- a/dados_finais.xlsx
+++ b/dados_finais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,8 +456,12 @@
           <t>Óculos quadrado</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,7 +472,9 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>25.99</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -479,7 +485,9 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -490,7 +498,9 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>129.8593862352</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -501,7 +511,9 @@
       <c r="B6" t="n">
         <v>11</v>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>48.45810645244801</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -512,7 +524,9 @@
       <c r="B7" t="n">
         <v>21</v>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>125.233750265932</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -520,8 +534,12 @@
           <t>Óculos quadrado</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -532,7 +550,9 @@
       <c r="B9" t="n">
         <v>5</v>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>124.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -543,7 +563,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>24.99</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -554,7 +576,9 @@
       <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -562,8 +586,12 @@
           <t>Óculos quadrado</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -574,7 +602,9 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>25.99</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -585,7 +615,9 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>29.99</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -596,7 +628,9 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>29.99</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -607,7 +641,9 @@
       <c r="B16" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>9.780000000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -618,7 +654,9 @@
       <c r="B17" t="n">
         <v>2</v>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>18.7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -629,7 +667,9 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>29.2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -640,7 +680,9 @@
       <c r="B19" t="n">
         <v>6</v>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>19.74</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -651,7 +693,9 @@
       <c r="B20" t="n">
         <v>6</v>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>37.14868489945886</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -662,7 +706,9 @@
       <c r="B21" t="n">
         <v>6</v>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>59.15173392000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -673,7 +719,9 @@
       <c r="B22" t="n">
         <v>13</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>94.01340000000002</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -681,8 +729,12 @@
           <t>Óculos quadrado</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -693,7 +745,9 @@
       <c r="B24" t="n">
         <v>2</v>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>29.1516</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -704,7 +758,9 @@
       <c r="B25" t="n">
         <v>2</v>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>51.98</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -715,7 +771,9 @@
       <c r="B26" t="n">
         <v>2</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>60.58</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -726,7 +784,9 @@
       <c r="B27" t="n">
         <v>3</v>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>14.07</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -737,7 +797,9 @@
       <c r="B28" t="n">
         <v>5</v>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>46.76598000000001</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -748,7 +810,9 @@
       <c r="B29" t="n">
         <v>10</v>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>32.364721584</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -759,7 +823,9 @@
       <c r="B30" t="n">
         <v>10</v>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>39.90000000000001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -770,7 +836,9 @@
       <c r="B31" t="n">
         <v>15</v>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>104.85</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -781,7 +849,9 @@
       <c r="B32" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>24.99</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -792,7 +862,9 @@
       <c r="B33" t="n">
         <v>1</v>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -803,7 +875,9 @@
       <c r="B34" t="n">
         <v>2</v>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -814,7 +888,9 @@
       <c r="B35" t="n">
         <v>3</v>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>26.97</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -825,7 +901,9 @@
       <c r="B36" t="n">
         <v>5</v>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>22.45</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -836,7 +914,9 @@
       <c r="B37" t="n">
         <v>8</v>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>68.72000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -847,7 +927,9 @@
       <c r="B38" t="n">
         <v>12</v>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>31.08</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -858,7 +940,9 @@
       <c r="B39" t="n">
         <v>12</v>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>47.88</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -869,21 +953,22 @@
       <c r="B40" t="n">
         <v>12</v>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>79.08000000000001</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Totais</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>192</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1677.517363357039</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
